--- a/Excel_Files/Dynamic_Range/2.5_cm/827_nm.xlsx
+++ b/Excel_Files/Dynamic_Range/2.5_cm/827_nm.xlsx
@@ -450,28 +450,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>168.012</v>
+        <v>62.521</v>
       </c>
       <c r="D2">
-        <v>135.278</v>
+        <v>46.975</v>
       </c>
       <c r="E2">
-        <v>320.229</v>
+        <v>101.898</v>
       </c>
       <c r="F2">
-        <v>490.315</v>
+        <v>149.6</v>
       </c>
       <c r="G2">
-        <v>216.298</v>
+        <v>83.017</v>
       </c>
       <c r="H2">
-        <v>601.596</v>
+        <v>161.248</v>
       </c>
       <c r="I2">
-        <v>101.788</v>
+        <v>40.913</v>
       </c>
       <c r="J2">
-        <v>604.301</v>
+        <v>168.667</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -482,28 +482,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>38.391</v>
+        <v>19.998</v>
       </c>
       <c r="D3">
-        <v>73.703</v>
+        <v>30.212</v>
       </c>
       <c r="E3">
-        <v>62.883</v>
+        <v>28.389</v>
       </c>
       <c r="F3">
-        <v>76.50700000000001</v>
+        <v>34.907</v>
       </c>
       <c r="G3">
-        <v>80.708</v>
+        <v>35.794</v>
       </c>
       <c r="H3">
-        <v>99.705</v>
+        <v>41.829</v>
       </c>
       <c r="I3">
-        <v>49.018</v>
+        <v>22.864</v>
       </c>
       <c r="J3">
-        <v>84.73099999999999</v>
+        <v>37.694</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -514,28 +514,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>14.759</v>
+        <v>9.255000000000001</v>
       </c>
       <c r="D4">
-        <v>22.253</v>
+        <v>12.065</v>
       </c>
       <c r="E4">
-        <v>21.97</v>
+        <v>12.593</v>
       </c>
       <c r="F4">
-        <v>16.945</v>
+        <v>10.45</v>
       </c>
       <c r="G4">
-        <v>18.659</v>
+        <v>11.265</v>
       </c>
       <c r="H4">
-        <v>25.134</v>
+        <v>14.14</v>
       </c>
       <c r="I4">
-        <v>18.048</v>
+        <v>10.557</v>
       </c>
       <c r="J4">
-        <v>12.517</v>
+        <v>8.186999999999999</v>
       </c>
     </row>
   </sheetData>
